--- a/medicine/Enfance/Judith_Kerr/Judith_Kerr.xlsx
+++ b/medicine/Enfance/Judith_Kerr/Judith_Kerr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Judith Kerr (née le 14 juin 1923 à Berlin et morte le 22 mai 2019 à Barnes à Londres[1],[2]) est une écrivaine britannique d'origine allemande.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Judith Kerr (née le 14 juin 1923 à Berlin et morte le 22 mai 2019 à Barnes à Londres,) est une écrivaine britannique d'origine allemande.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Judith Kerr est née dans une famille juive. Son père, Alfred Kerr, était un écrivain et journaliste allemand reconnu et un anti-Nazi notoire. En 1933, peu avant l'arrivée au pouvoir des Nazis, la famille s’exile afin de se mettre à l'abri[3]. Judith Kerr part d’abord pour Prague, avant de rejoindre la Suisse puis la France, à Paris. En 1936, la famille va finalement s’installer en Angleterre. Elle y a épousé l'écrivain britannique Nigel Kneale, dont elle a pris la nationalité. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Judith Kerr est née dans une famille juive. Son père, Alfred Kerr, était un écrivain et journaliste allemand reconnu et un anti-Nazi notoire. En 1933, peu avant l'arrivée au pouvoir des Nazis, la famille s’exile afin de se mettre à l'abri. Judith Kerr part d’abord pour Prague, avant de rejoindre la Suisse puis la France, à Paris. En 1936, la famille va finalement s’installer en Angleterre. Elle y a épousé l'écrivain britannique Nigel Kneale, dont elle a pris la nationalité. 
 Elle est diplômée d’une école de Métiers d’art en 1945.
 Elle a exercé les professions d’enseignante,de scénariste pour la BBC et de styliste. Elle a également travaillé dans l’édition avant de devenir auteur et illustratrice pour la jeunesse.
 Elle a écrit trois ouvrages autobiographiques: un sur son enfance en exil, un autre sur son adolescence en Angleterre durant la Seconde Guerre mondiale et un troisième sur son bref retour à Berlin lorsqu’elle était jeune mariée. 
-En 1974[3], elle publie, en anglais, Quand Hitler s’empara du lapin rose (« When Hitler Stole Pink Rabbit »), livre couronné par un prix littéraire allemand. Ce roman est adapté au cinéma en 2019 par la réalisatrice allemande Caroline Link ; son film  Quand Hitler s'empara du lapin rose est récompensé par le German Film Award 2020 du meilleur film jeune public[4],[5]. 
+En 1974, elle publie, en anglais, Quand Hitler s’empara du lapin rose (« When Hitler Stole Pink Rabbit »), livre couronné par un prix littéraire allemand. Ce roman est adapté au cinéma en 2019 par la réalisatrice allemande Caroline Link ; son film  Quand Hitler s'empara du lapin rose est récompensé par le German Film Award 2020 du meilleur film jeune public,. 
 Judith Kerr a publié des albums pour enfants. Elle a écrit en anglais.
 </t>
         </is>
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>En français
-Quand Hitler s'empara du lapin rose, Paris, Albin Michel Jeunesse, 2018  (ISBN 978-2-226-43645-0), rééd. Le Livre de Poche Jeunesse, 2019,  (ISBN 978-2-017-86829-3).
+          <t>En français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Quand Hitler s'empara du lapin rose, Paris, Albin Michel Jeunesse, 2018  (ISBN 978-2-226-43645-0), rééd. Le Livre de Poche Jeunesse, 2019,  (ISBN 978-2-017-86829-3).
 Ici Londres, Paris, Albin Michel Jeunesse, 2018.
 Le tigre s'invita pour le thé, Paris, Albin Michel Jeunesse, 2018.</t>
         </is>
